--- a/Output/FedAcqTrends/Customer/NUCLEAR_WASTE_TECHNICAL_REVIEW_BOARD/NUCLEAR_WASTE_TECHNICAL_REVIEW_BOARD_Contracts.xlsx
+++ b/Output/FedAcqTrends/Customer/NUCLEAR_WASTE_TECHNICAL_REVIEW_BOARD/NUCLEAR_WASTE_TECHNICAL_REVIEW_BOARD_Contracts.xlsx
@@ -7,12 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="FYQ" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Veh" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PSR" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">Vehicle.AwardTask</t>
   </si>
@@ -33,14 +36,35 @@
   </si>
   <si>
     <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">PricingUCA.sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PricingUCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed-Price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SimpleArea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services (Non-R&amp;D)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="168" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="169" formatCode="0.00,,,&quot;B&quot;"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -76,9 +100,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,4 +504,322 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="2" t="n">
+        <v>29835.0801</v>
+      </c>
+      <c r="Q2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f>Sum(P2:P2)</f>
+      </c>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
+      <c r="N6" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
+      <c r="N7" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>4</v>
+      </c>
+      <c r="P7" s="2" t="n">
+        <v>33381.9269276046</v>
+      </c>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>N1</f>
+      </c>
+      <c r="B1" t="str">
+        <f>O1</f>
+      </c>
+      <c r="N1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>N2</f>
+      </c>
+      <c r="B2" t="str">
+        <f>O2</f>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>29835.0801</v>
+      </c>
+      <c r="Q2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>N3</f>
+      </c>
+      <c r="B3" t="str">
+        <f>O3</f>
+      </c>
+      <c r="N3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>6</v>
+      </c>
+      <c r="P3" s="3" t="str">
+        <f>Sum(P2:P2)</f>
+      </c>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>N6</f>
+      </c>
+      <c r="B6" t="str">
+        <f>O6</f>
+      </c>
+      <c r="N6" t="s">
+        <v>7</v>
+      </c>
+      <c r="O6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>N7</f>
+      </c>
+      <c r="B7" t="str">
+        <f>O7</f>
+      </c>
+      <c r="N7" t="s">
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="3" t="n">
+        <v>33381.9269276046</v>
+      </c>
+      <c r="Q7" s="3"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>N8</f>
+      </c>
+      <c r="B8" t="str">
+        <f>O8</f>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <f>M1</f>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <f>M2</f>
+      </c>
+      <c r="M2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>29835.0801</v>
+      </c>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <f>M3</f>
+      </c>
+      <c r="M3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="4" t="str">
+        <f>Sum(N2:N2)</f>
+      </c>
+      <c r="O3" s="4" t="str">
+        <f>Sum(O2:O2)</f>
+      </c>
+      <c r="P3" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <f>M6</f>
+      </c>
+      <c r="M6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <f>M7</f>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" s="4" t="n">
+        <v>33381.9269276046</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <f>M8</f>
+      </c>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>